--- a/story/主线剧情/main/level_main_08-04_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-04_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="247">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">晖洁：
 </t>
   </si>
@@ -503,6 +509,494 @@
   </si>
   <si>
     <t xml:space="preserve">[name="タルラ"] 私の炎で燃やし尽くすのみ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hui-chieh:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If memory serves me correctly, and I don’t trust it to, the old man’s name was Ivan Iziaslav.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very common name. And he was the sort of peasant farmer you could find anywhere. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But he sacrificed himself. For a whole mess of reasons, he gave his own life... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think about it every now and then. Am I truly worth people sacrificing their lives?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alina went with me. She was gentle most other times, but would suddenly just come out with venomous tongue-lashings. That made me uncomfortable, to say the least. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The plan was proceeding smoothly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with my own ideas, rapidly, the Infected of this place would surely unite as one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hoped it would be effective.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I hoped it would be enough for the old man to rest peacefully. Aside from the old lady, no-one else had been closer family to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 7th
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third year without the Black Snake
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Sir, I’m...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Whatcha here for? Don’t like the look of your clothes. Some old vet, are you? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Get lost! There’s nothing even left here. You lot stole it, all of it! And what you couldn’t steal, you burned!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Bastards! You came to kill me? Kill me, then! Goddamned demons!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No, sir, I’m here to tell you that the Infected Patrol Unit is sweeping this area today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Then let ‘em sweep! Let ‘em kill us all, why don’t you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] We built our pathetic, unlivable village all the way out here, and they still come for us! What else can we do but let ‘em!? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Sir. You can hide yourselves, and I’ll talk to them. Or I can conceal myself... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] And who’re you? I always said, you military noble bunch, no matter what you pretend! You’re all just out for our lives—  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Hah, you’re not quite their sort. You actually talk with us! And they think we’re barely even worth whipping! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Huh? Hello?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Gone...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] What kind of stunt is this? Oh... damn us all...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Damn us all. What a pathetic ending.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  It’s no bad thing to know your own damnation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Ah... Mr. Patrolman...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  ...Destitute and lousy. Bad physique. You wouldn’t be much use even if we sent you to the mines. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  How do you want to die, then? Painlessly? Slowly?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] ...Mr. Patrolman! Look at me... what harm would leaving me alive do you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  You say that with a weapon in your hand?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] ...Sorry, Mr. Patrolman! This was for whoever that was just a minute ago! I don’t know where she’s gone now, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  Even burdenbeasts are worth more than you Infected. They can at least move goods. Your existence is a waste of His Majesty’s land!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Why is that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  Where did you come from?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] From far, far east.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  What the hell are you...? You, are you Infected too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I am.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I can think. I can speak.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We Infected live and die. Why should you decide when and how?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  What is this bullshit?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If you could let us die peacefully on our own terms, we’d hardly even be upset about it...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But, my Infected brother, look up at him! Look at his face, his grin, his laugh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They want to decide our fates. Control us. Perhaps our lives aren’t worth much, but do you think you’d be worth a single gold coin?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  You!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You’re not worried that the Infected will hurt anything. No. You’ve hardly met more than a few remotely threatening Infected in your whole life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] All you want to do is exploit us to our last days, make playthings of our lives!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Ah...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] My brother, in all their past outrageous acts, have they ever spared someone for their conduct? Have they ever let another live for following instructions?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They have not! Each time they let you live, it was only because they still saw worth they could squeeze from you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] With no money and no land left, they’d kick you to the floor. After all, the cities don’t even give Infected the chance to live!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] How should we Infected live? How should we die? That is for us to decide!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] ......!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] But... who are you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  You good-for-nothing! Tell me your name at once!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  In the name of the Emperor! For daring to lead his citizenry astray with these ludicrous ideals, we sentence you to death!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] To my brothers, I have no name. Refer to me how you wish. If you must call me something, you may call me Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] To my enemies, you have no need for my name.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But my fires will set you alight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">훼이지에에게
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흐릿한 기억 속 할아버지의 이름은 이반 이자슬라프……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흔한 이름만큼 어디서든 볼 수 있는 평범한 농부였지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그런 그는 자신을 희생했어, 여러 가지 이유로 자신의 목숨을……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 다른 사람의 목숨을 희생시킬 만한 존재인지 가끔 생각하곤 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">알리나와 함께 있어. 평소에는 상냥한 편이지만 가끔 예민하게 굴어서 대하는 게 쉽진 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">계획은 순조롭게 진행 중이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 생각대로라면 이제 곧 일부 감염자들끼리 힘을 합칠 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부디 효과가 있었으면 좋겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">할아버지, 부디 편히 잠드세요. 할머니 말고, 제게 소중한 사람은 할아버지뿐이에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2월 7일
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">검은 뱀으로부터 벗어난 지 3년째 되는 해
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 저기……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 여긴 왜 왔지? 이 옷은…… 이건 또 어느 대단하신 분인가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 돌아가! 여긴 아무것도 없어, 너희가 몽땅 뺏어갔잖아! 빼앗아 가지 못한 건 다 불타버렸어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 제길, 날 죽이러 온 거냐? 죽일 테면 죽여봐라, 이 악마 같은 놈들!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그런 게 아니다. 감염자 감시팀이 오늘 이곳에 올 거라고 알려주러 온 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 흥, 올 테면 오라고 해! 우릴 몽땅 죽이라고 해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 사람이 살 수 없을 것 같은 마을 하나 못 봐주겠다면 와서 마음대로 하라고 해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 잘 숨어 있어. 내가 저들과 이야기해 보지, 아니면 내가 숨어 있다가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 넌 대체 뭐지? 너희 같은 귀족들은 아무리 고상한 척 굴어도 결국 원하는 건 우리 목숨이잖아……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 흥, 그래도 넌 그들과는 좀 다른 것 같군. 우리와 적어도 대화라는 걸 하잖아, 녀석들은 우리한테 채찍질하는 것조차 귀찮아하거든!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 응? 어디 갔지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 사라진 건가……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 이건 또 무슨 꿍꿍이야? 허억……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 우리 목숨도 여기까지인 건가.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  제 팔자를 잘 아는 건 좋은 일이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 헉……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  ……가난하고 비쩍 곯았군. 체격도 왜소한 게 군대 광산에 보내봤자 별 쓸모도 없겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  어떻게 죽여줄까? 한 번에? 아니면 천천히?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] ……살려 주십시오! 저 하나 살려주셔도 손해 볼 건 없지 않습니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  손에 무기를 들고 그따위 말을 해?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] ……죄, 죄송합니다! 이건 방금 어떤 녀석 때문에, 대체 어디로 사라진 건지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  감염자는 짐승보다 못한 족속이지. 짐승은 짐이라도 나르지만 너희는 폐하의 소중한 땅을 갉아먹을 뿐이야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 왜 그렇게 말하지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  누구냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 머나먼 동쪽에서 왔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  뭐라는 거야?…… 너도 감염자냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그래.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 난 스스로 생각할 수도 있고, 말도 할 수 있지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 우리의 생사는 우리가 결정한다. 그걸 네가 왜 결정한다는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  뭐라고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 조용한 곳에서 스스로 죽게 해줬다면 이렇게 화가 나진 않았을 거야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 하지만…… 거기 감염자 형제여, 고개를 들고 똑똑히 봐라! 저자의 눈빛과 입, 그리고 저 웃음을!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 저들은 우리의 생사를 마음대로 결정하고 우리를 조종하려 하지. 우리더러 싸구려 목숨이라고 하지만, 그러는 저놈들은 또 뭐가 그리 대단한가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  닥쳐!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희들은 감염자가 위험을 일으킬까 걱정하는 게 아니야. 지금껏 위협적인 감염자도 거의 보지 못했을걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너흰 그저 우리의 목숨을 이용하고, 장난치려는 것뿐이잖아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 윽……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 감염자 형제여, 저자들의 행동을 떠올려 봐라! 올바르게 행동했다고, 훌륭한 태도를 지녔다고 누굴 봐준 적이 있었던가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아니! 저들은 감염자들이 쓸모 있다고 여길 때만 살려뒀다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그런데 이제 돈도, 땅도 없으니 뒤도 안 돌아보고 형제들을 버린 것이다. 이제 감염자는 도시 안에서 살 수 없게 되었지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 우리의 생사는 우리가 직접 정해야 한다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] ……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"] 넌…… 대체 누구냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  빌어먹을 녀석, 이름을 대라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  폐하의 이름을 도용해 사람들을 현혹하려 하다니, 절대 살려두지 않겠다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 내겐 이름이 없다. 부르고 싶은 대로 불러, 이름을 꼭 부르고 싶다면, 탈룰라라고 부르면 된다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 네놈들에겐 내 이름을 알 자격 따윈 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 대신, 내 불꽃으로 너희들을 몽땅 태워주마!
 </t>
   </si>
 </sst>
@@ -861,506 +1355,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
